--- a/7081_orders.xlsx
+++ b/7081_orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Accounting Number</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Doses/Breed</t>
-  </si>
-  <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
@@ -77,6 +77,9 @@
     <t xml:space="preserve">AP &amp; SOUTH</t>
   </si>
   <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
     <t xml:space="preserve">BARFIELD FARMS INC, KEN</t>
   </si>
   <si>
@@ -89,7 +92,7 @@
     <t xml:space="preserve">Farm 31121 Farrowing</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 55751 Farrowing</t>
+    <t xml:space="preserve">Farm 5575</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 57861 Farrowing</t>
@@ -98,9 +101,6 @@
     <t xml:space="preserve">FARM 67991/BLADEN SPRINGS FARR</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 74401-Farrowing (fox ridge)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Farm 74421-Farrowing</t>
   </si>
   <si>
@@ -116,7 +116,13 @@
     <t xml:space="preserve">Farm 76911 Farrowing</t>
   </si>
   <si>
-    <t xml:space="preserve">HIGHRIDGE SOW</t>
+    <t xml:space="preserve">Farm Dogwood 74411-Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATH SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOG CITY SOW FARM</t>
   </si>
   <si>
     <t xml:space="preserve">M1 Farrowing</t>
@@ -128,16 +134,19 @@
     <t xml:space="preserve">OAK GROVE SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">SMITH, JOHN SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTH WOODS SOW</t>
+    <t xml:space="preserve">PINNACLE SOW</t>
   </si>
   <si>
     <t xml:space="preserve">Sow 6</t>
   </si>
   <si>
     <t xml:space="preserve">VAN EDEN SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAYHILL SOW FARM</t>
   </si>
 </sst>
 </file>
@@ -474,26 +483,26 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="32.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="30.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="10.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="10.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="10.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -570,31 +579,29 @@
       </c>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" t="n">
-        <v>46</v>
-      </c>
-      <c r="I2"/>
+      <c r="H2"/>
+      <c r="I2" t="n">
+        <v>14</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" t="n">
-        <v>14</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>46</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
+      <c r="P2"/>
+      <c r="Q2" t="n">
         <v>58</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>118</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.26923076923077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>7081</v>
@@ -603,33 +610,31 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
         <v>2298</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3"/>
+      <c r="H3"/>
+      <c r="I3" t="n">
+        <v>19</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" t="n">
-        <v>20</v>
-      </c>
-      <c r="M3"/>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>56</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>91</v>
-      </c>
+      <c r="P3"/>
       <c r="Q3" t="n">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="R3" t="n">
-        <v>2.83333333333333</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -643,33 +648,31 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
         <v>6239</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4"/>
+      <c r="H4"/>
+      <c r="I4" t="n">
+        <v>70</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-      <c r="M4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>200</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>230</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4" t="n">
-        <v>430</v>
+        <v>165</v>
       </c>
       <c r="R4" t="n">
-        <v>2.07729468599034</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5">
@@ -683,33 +686,31 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" t="n">
         <v>32431</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" t="n">
-        <v>123</v>
-      </c>
-      <c r="I5"/>
+      <c r="H5"/>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" t="n">
-        <v>40</v>
-      </c>
-      <c r="M5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>28</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" t="n">
-        <v>85</v>
-      </c>
+      <c r="P5"/>
       <c r="Q5" t="n">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="R5" t="n">
-        <v>1.96825396825397</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6">
@@ -723,33 +724,31 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>31121</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" t="n">
-        <v>120</v>
-      </c>
-      <c r="I6"/>
+      <c r="H6"/>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="n">
-        <v>13</v>
-      </c>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>20</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>135</v>
-      </c>
+      <c r="P6"/>
       <c r="Q6" t="n">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="R6" t="n">
-        <v>2.12698412698413</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -763,33 +762,31 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>55751</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7" t="n">
-        <v>55</v>
-      </c>
-      <c r="I7"/>
+      <c r="H7"/>
+      <c r="I7" t="n">
+        <v>100</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7" t="n">
-        <v>45</v>
-      </c>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>38</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
-        <v>170</v>
-      </c>
+      <c r="P7"/>
       <c r="Q7" t="n">
-        <v>270</v>
+        <v>84</v>
       </c>
       <c r="R7" t="n">
-        <v>2.32758620689655</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8">
@@ -803,33 +800,31 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
         <v>57861</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" t="n">
-        <v>60</v>
-      </c>
-      <c r="I8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>94</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>94</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>168</v>
-      </c>
+      <c r="P8"/>
       <c r="Q8" t="n">
+        <v>54</v>
+      </c>
+      <c r="R8" t="n">
         <v>273</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.184</v>
       </c>
     </row>
     <row r="9">
@@ -843,33 +838,31 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>67991</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>110</v>
-      </c>
-      <c r="M9"/>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>120</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
-        <v>137</v>
-      </c>
+      <c r="P9"/>
       <c r="Q9" t="n">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="R9" t="n">
-        <v>2.02923976608187</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
@@ -883,33 +876,31 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>74401</v>
+        <v>74421</v>
       </c>
       <c r="F10"/>
-      <c r="G10" t="n">
-        <v>8</v>
-      </c>
+      <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
       <c r="J10"/>
-      <c r="K10" t="n">
-        <v>18</v>
-      </c>
+      <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
       <c r="N10"/>
-      <c r="O10" t="n">
-        <v>20</v>
-      </c>
+      <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="R10" t="n">
-        <v>0.231155778894472</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -923,33 +914,31 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>74401</v>
+        <v>76811</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" t="n">
-        <v>66</v>
-      </c>
-      <c r="I11"/>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>45</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" t="n">
-        <v>167</v>
-      </c>
-      <c r="M11"/>
+      <c r="L11"/>
+      <c r="M11" t="n">
+        <v>115</v>
+      </c>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11" t="n">
-        <v>180</v>
-      </c>
+      <c r="P11"/>
       <c r="Q11" t="n">
-        <v>413</v>
+        <v>60</v>
       </c>
       <c r="R11" t="n">
-        <v>2.07537688442211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12">
@@ -963,33 +952,31 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>74421</v>
+        <v>76831</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" t="n">
-        <v>27</v>
-      </c>
-      <c r="I12"/>
+      <c r="H12"/>
+      <c r="I12" t="n">
+        <v>115</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" t="n">
-        <v>16</v>
-      </c>
-      <c r="M12"/>
+      <c r="L12"/>
+      <c r="M12" t="n">
+        <v>45</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12" t="n">
-        <v>71</v>
-      </c>
+      <c r="P12"/>
       <c r="Q12" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="R12" t="n">
-        <v>3.93103448275862</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -1003,33 +990,31 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>76811</v>
+        <v>76901</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13"/>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>80</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" t="n">
-        <v>200</v>
-      </c>
-      <c r="M13"/>
+      <c r="L13"/>
+      <c r="M13" t="n">
+        <v>40</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13" t="n">
-        <v>30</v>
-      </c>
+      <c r="P13"/>
       <c r="Q13" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="R13" t="n">
-        <v>2.28070175438596</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
@@ -1043,33 +1028,31 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>76831</v>
+        <v>76911</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" t="n">
-        <v>115</v>
-      </c>
-      <c r="I14"/>
+      <c r="H14"/>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" t="n">
-        <v>40</v>
-      </c>
-      <c r="M14"/>
+      <c r="L14"/>
+      <c r="M14" t="n">
+        <v>120</v>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14" t="n">
-        <v>130</v>
-      </c>
+      <c r="P14"/>
       <c r="Q14" t="n">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="R14" t="n">
-        <v>2.56756756756757</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
@@ -1083,33 +1066,31 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
-        <v>76901</v>
+        <v>74411</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>126</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Q15"/>
       <c r="R15" t="n">
-        <v>1.48235294117647</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -1123,38 +1104,36 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
-        <v>76911</v>
+        <v>74411</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" t="n">
-        <v>152</v>
-      </c>
-      <c r="I16"/>
+      <c r="H16"/>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" t="n">
+      <c r="L16"/>
+      <c r="M16" t="n">
         <v>22</v>
       </c>
-      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16" t="n">
-        <v>27</v>
-      </c>
+      <c r="P16"/>
       <c r="Q16" t="n">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="R16" t="n">
-        <v>2.68</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>7081</v>
@@ -1163,38 +1142,36 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>68521</v>
+        <v>5055</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" t="n">
-        <v>115</v>
-      </c>
-      <c r="I17"/>
+      <c r="H17"/>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17" t="n">
-        <v>40</v>
-      </c>
-      <c r="M17"/>
+      <c r="L17"/>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
       <c r="N17"/>
       <c r="O17"/>
-      <c r="P17" t="n">
-        <v>155</v>
-      </c>
+      <c r="P17"/>
       <c r="Q17" t="n">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="R17" t="n">
-        <v>2.33082706766917</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
         <v>7081</v>
@@ -1203,33 +1180,31 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
-        <v>67071</v>
+        <v>5054</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18" t="n">
-        <v>40</v>
-      </c>
-      <c r="I18"/>
+      <c r="H18"/>
+      <c r="I18" t="n">
+        <v>65</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18" t="n">
-        <v>50</v>
-      </c>
-      <c r="M18"/>
+      <c r="L18"/>
+      <c r="M18" t="n">
+        <v>18</v>
+      </c>
       <c r="N18"/>
       <c r="O18"/>
-      <c r="P18" t="n">
-        <v>110</v>
-      </c>
+      <c r="P18"/>
       <c r="Q18" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="R18" t="n">
-        <v>2.29885057471264</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -1243,33 +1218,31 @@
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>58011</v>
+        <v>67071</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" t="n">
-        <v>80</v>
-      </c>
-      <c r="I19"/>
+      <c r="H19"/>
+      <c r="I19" t="n">
+        <v>42</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19" t="n">
-        <v>20</v>
-      </c>
-      <c r="M19"/>
+      <c r="L19"/>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" t="n">
-        <v>76</v>
-      </c>
+      <c r="P19"/>
       <c r="Q19" t="n">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="R19" t="n">
-        <v>2.66666666666667</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -1283,33 +1256,31 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>68101</v>
+        <v>58011</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" t="n">
-        <v>110</v>
-      </c>
-      <c r="I20"/>
+      <c r="H20"/>
+      <c r="I20" t="n">
+        <v>60</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20" t="n">
-        <v>50</v>
-      </c>
-      <c r="M20"/>
+      <c r="L20"/>
+      <c r="M20" t="n">
+        <v>10</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20" t="n">
-        <v>50</v>
-      </c>
+      <c r="P20"/>
       <c r="Q20" t="n">
-        <v>210</v>
+        <v>70</v>
       </c>
       <c r="R20" t="n">
-        <v>2.33333333333333</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -1323,33 +1294,31 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
-        <v>28901</v>
+        <v>68101</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" t="n">
-        <v>30</v>
-      </c>
-      <c r="I21"/>
+      <c r="H21"/>
+      <c r="I21" t="n">
+        <v>110</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21" t="n">
-        <v>30</v>
-      </c>
-      <c r="M21"/>
+      <c r="L21"/>
+      <c r="M21" t="n">
+        <v>40</v>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
-        <v>80</v>
-      </c>
+      <c r="P21"/>
       <c r="Q21" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1875</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
@@ -1363,33 +1332,31 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>68561</v>
+        <v>6211</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22" t="n">
-        <v>160</v>
-      </c>
-      <c r="I22"/>
+      <c r="H22"/>
+      <c r="I22" t="n">
+        <v>186</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22" t="n">
-        <v>125</v>
-      </c>
-      <c r="M22"/>
+      <c r="L22"/>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
       <c r="N22"/>
       <c r="O22"/>
-      <c r="P22" t="n">
-        <v>215</v>
-      </c>
+      <c r="P22"/>
       <c r="Q22" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="R22" t="n">
-        <v>2.16450216450216</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23">
@@ -1403,33 +1370,31 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
         <v>67061</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" t="n">
-        <v>43</v>
-      </c>
-      <c r="I23"/>
+      <c r="H23"/>
+      <c r="I23" t="n">
+        <v>12</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23" t="n">
-        <v>50</v>
-      </c>
-      <c r="M23"/>
+      <c r="L23"/>
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
       <c r="N23"/>
       <c r="O23"/>
-      <c r="P23" t="n">
-        <v>133</v>
-      </c>
+      <c r="P23"/>
       <c r="Q23" t="n">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35416666666667</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24">
@@ -1443,33 +1408,145 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
         <v>2615</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" t="n">
-        <v>120</v>
-      </c>
-      <c r="I24"/>
+      <c r="H24"/>
+      <c r="I24" t="n">
+        <v>110</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24" t="n">
-        <v>202</v>
-      </c>
-      <c r="M24"/>
+      <c r="L24"/>
+      <c r="M24" t="n">
+        <v>60</v>
+      </c>
       <c r="N24"/>
       <c r="O24"/>
-      <c r="P24" t="n">
-        <v>100</v>
-      </c>
+      <c r="P24"/>
       <c r="Q24" t="n">
-        <v>422</v>
+        <v>180</v>
       </c>
       <c r="R24" t="n">
-        <v>2.41142857142857</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7081</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5074</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v>10</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25" t="n">
+        <v>52</v>
+      </c>
+      <c r="R25" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="n">
+        <v>7081</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5074</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="n">
+        <v>30</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26" t="n">
+        <v>10</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26" t="n">
+        <v>52</v>
+      </c>
+      <c r="R26" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7081</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5059</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="n">
+        <v>110</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27" t="n">
+        <v>30</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27" t="n">
+        <v>60</v>
+      </c>
+      <c r="R27" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
